--- a/btk_django_Proje_Database.xlsx
+++ b/btk_django_Proje_Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\YandexDisk\DERSLER\OK1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/801a99dfdd32f3f1/Desktop/btkdjango2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD64D7A2-F658-43BD-BDA8-75AC0A77729C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{AD64D7A2-F658-43BD-BDA8-75AC0A77729C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7E758B7-1F85-4B73-A089-E5CA19890327}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="890" firstSheet="9" activeTab="22" xr2:uid="{6B565FA0-F1C3-422A-B903-82CB9C06F3F3}"/>
+    <workbookView xWindow="15890" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="890" firstSheet="10" activeTab="11" xr2:uid="{6B565FA0-F1C3-422A-B903-82CB9C06F3F3}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Otel" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="244">
   <si>
     <t>setting</t>
   </si>
@@ -812,6 +812,9 @@
   <si>
     <t>Yes/no</t>
   </si>
+  <si>
+    <t>favorites</t>
+  </si>
 </sst>
 </file>
 
@@ -998,7 +1001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1018,15 +1021,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -9411,9 +9409,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Teması">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9451,7 +9449,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9557,7 +9555,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9699,7 +9697,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11694,8 +11692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E274B9F8-2E52-44F5-BE0E-F25FF9B1A5E9}">
   <dimension ref="B2:T25"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17:N23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11788,11 +11786,11 @@
         <v>10</v>
       </c>
       <c r="M3" s="7"/>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="21" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="26" t="s">
+      <c r="P3" s="21" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="7"/>
@@ -11829,11 +11827,11 @@
         <v>73</v>
       </c>
       <c r="M4" s="7"/>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="21" t="s">
         <v>15</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="21" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7"/>
@@ -11870,11 +11868,11 @@
         <v>11</v>
       </c>
       <c r="M5" s="7"/>
-      <c r="N5" s="26" t="s">
+      <c r="N5" s="21" t="s">
         <v>12</v>
       </c>
       <c r="O5" s="7"/>
-      <c r="P5" s="26" t="s">
+      <c r="P5" s="21" t="s">
         <v>74</v>
       </c>
       <c r="Q5" s="7"/>
@@ -11911,11 +11909,11 @@
         <v>5</v>
       </c>
       <c r="M6" s="7"/>
-      <c r="N6" s="26" t="s">
+      <c r="N6" s="21" t="s">
         <v>18</v>
       </c>
       <c r="O6" s="7"/>
-      <c r="P6" s="26" t="s">
+      <c r="P6" s="21" t="s">
         <v>75</v>
       </c>
       <c r="Q6" s="7"/>
@@ -11950,11 +11948,11 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="26" t="s">
+      <c r="N7" s="21" t="s">
         <v>21</v>
       </c>
       <c r="O7" s="7"/>
-      <c r="P7" s="26" t="s">
+      <c r="P7" s="21" t="s">
         <v>36</v>
       </c>
       <c r="Q7" s="7"/>
@@ -11987,11 +11985,11 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="27" t="s">
+      <c r="N8" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O8" s="7"/>
-      <c r="P8" s="26" t="s">
+      <c r="P8" s="21" t="s">
         <v>77</v>
       </c>
       <c r="Q8" s="7"/>
@@ -12028,11 +12026,11 @@
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="27" t="s">
+      <c r="N9" s="22" t="s">
         <v>26</v>
       </c>
       <c r="O9" s="7"/>
-      <c r="P9" s="26" t="s">
+      <c r="P9" s="21" t="s">
         <v>43</v>
       </c>
       <c r="Q9" s="7"/>
@@ -12065,11 +12063,11 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="26" t="s">
+      <c r="N10" s="21" t="s">
         <v>43</v>
       </c>
       <c r="O10" s="7"/>
-      <c r="P10" s="26" t="s">
+      <c r="P10" s="21" t="s">
         <v>34</v>
       </c>
       <c r="Q10" s="7"/>
@@ -12102,11 +12100,11 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="26" t="s">
+      <c r="N11" s="21" t="s">
         <v>25</v>
       </c>
       <c r="O11" s="7"/>
-      <c r="P11" s="26" t="s">
+      <c r="P11" s="21" t="s">
         <v>53</v>
       </c>
       <c r="Q11" s="7"/>
@@ -12135,11 +12133,11 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="26" t="s">
+      <c r="N12" s="21" t="s">
         <v>53</v>
       </c>
       <c r="O12" s="7"/>
-      <c r="P12" s="26" t="s">
+      <c r="P12" s="21" t="s">
         <v>25</v>
       </c>
       <c r="Q12" s="7"/>
@@ -12164,11 +12162,11 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="26" t="s">
+      <c r="N13" s="21" t="s">
         <v>79</v>
       </c>
       <c r="O13" s="7"/>
-      <c r="P13" s="26" t="s">
+      <c r="P13" s="21" t="s">
         <v>30</v>
       </c>
       <c r="Q13" s="7"/>
@@ -12181,7 +12179,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="24"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -12193,11 +12191,11 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="26" t="s">
+      <c r="N14" s="21" t="s">
         <v>30</v>
       </c>
       <c r="O14" s="7"/>
-      <c r="P14" s="26" t="s">
+      <c r="P14" s="21" t="s">
         <v>37</v>
       </c>
       <c r="Q14" s="7"/>
@@ -12210,7 +12208,7 @@
         <v>50</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="21"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -12222,7 +12220,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="26" t="s">
+      <c r="N15" s="21" t="s">
         <v>37</v>
       </c>
       <c r="O15" s="7"/>
@@ -12236,7 +12234,6 @@
         <v>51</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="25"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -12276,7 +12273,9 @@
         <v>201</v>
       </c>
       <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
@@ -12296,11 +12295,13 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="26" t="s">
+      <c r="N18" s="21" t="s">
         <v>10</v>
       </c>
       <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
+      <c r="P18" s="21" t="s">
+        <v>10</v>
+      </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
@@ -12321,10 +12322,13 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="26" t="s">
+      <c r="N19" s="21" t="s">
         <v>74</v>
       </c>
       <c r="O19" s="7"/>
+      <c r="P19" s="21" t="s">
+        <v>74</v>
+      </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
@@ -12345,10 +12349,13 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="26" t="s">
+      <c r="N20" s="21" t="s">
         <v>15</v>
       </c>
       <c r="O20" s="7"/>
+      <c r="P20" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -12369,10 +12376,11 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="26" t="s">
+      <c r="N21" s="21" t="s">
         <v>202</v>
       </c>
       <c r="O21" s="7"/>
+      <c r="P21" s="21"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
@@ -12391,8 +12399,9 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="26"/>
+      <c r="N22" s="21"/>
       <c r="O22" s="7"/>
+      <c r="P22" s="21"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -12408,8 +12417,9 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="26"/>
+      <c r="N23" s="21"/>
       <c r="O23" s="7"/>
+      <c r="P23" s="21"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
@@ -12474,7 +12484,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="25" t="s">
         <v>145</v>
       </c>
       <c r="K2" s="3"/>
@@ -12507,7 +12517,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="7"/>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="24" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="7"/>
@@ -12778,7 +12788,7 @@
         <v>37</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="23" t="s">
         <v>208</v>
       </c>
       <c r="G12" s="7"/>
@@ -13445,7 +13455,7 @@
         <v>50</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="21"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -13633,7 +13643,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09929995-8751-44D3-9E2A-BED7A4F4A8EB}">
-  <dimension ref="B1:Q23"/>
+  <dimension ref="B2:Q23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S1" sqref="S1:S1048576"/>
@@ -13660,14 +13670,6 @@
     <col min="17" max="17" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-    </row>
     <row r="2" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -13997,7 +13999,7 @@
         <v>37</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="23" t="s">
         <v>208</v>
       </c>
       <c r="G12" s="7"/>
@@ -14254,7 +14256,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B675891D-3542-466D-AFE5-D909C1715008}">
-  <dimension ref="B1:S23"/>
+  <dimension ref="B2:S23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
@@ -14282,14 +14284,6 @@
     <col min="19" max="19" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-    </row>
     <row r="2" spans="2:19" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -14647,7 +14641,7 @@
         <v>37</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="23" t="s">
         <v>208</v>
       </c>
       <c r="G12" s="7"/>
@@ -16308,14 +16302,7 @@
     <col min="16" max="16" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-    </row>
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -16333,7 +16320,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="25" t="s">
         <v>220</v>
       </c>
       <c r="K2" s="3"/>
@@ -16366,7 +16353,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="7"/>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="24" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="7"/>
@@ -16635,7 +16622,7 @@
         <v>37</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="23" t="s">
         <v>208</v>
       </c>
       <c r="G12" s="7"/>
@@ -17526,7 +17513,7 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="26" t="s">
+      <c r="N19" s="21" t="s">
         <v>10</v>
       </c>
       <c r="O19" s="7"/>
@@ -17552,7 +17539,7 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="26" t="s">
+      <c r="N20" s="21" t="s">
         <v>74</v>
       </c>
       <c r="O20" s="7"/>
@@ -17578,7 +17565,7 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="26" t="s">
+      <c r="N21" s="21" t="s">
         <v>15</v>
       </c>
       <c r="O21" s="7"/>
@@ -17602,7 +17589,7 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="26" t="s">
+      <c r="N22" s="21" t="s">
         <v>202</v>
       </c>
       <c r="O22" s="7"/>
@@ -17623,7 +17610,7 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="26"/>
+      <c r="N23" s="21"/>
       <c r="O23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
@@ -17634,7 +17621,7 @@
       <c r="H24" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="N24" s="26"/>
+      <c r="N24" s="21"/>
     </row>
     <row r="25" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H25" s="7" t="s">
@@ -17651,7 +17638,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0F3795-B019-4F5D-9949-B9DBBD0585A0}">
-  <dimension ref="B1:Q23"/>
+  <dimension ref="B2:Q23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S19" sqref="S19"/>
@@ -17678,14 +17665,6 @@
     <col min="17" max="17" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-    </row>
     <row r="2" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -18015,7 +17994,7 @@
         <v>37</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="23" t="s">
         <v>208</v>
       </c>
       <c r="G12" s="7"/>
@@ -18282,7 +18261,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5550C78-CBE5-4B6C-ADEF-6EDDA0638216}">
-  <dimension ref="B1:R23"/>
+  <dimension ref="B2:R23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
@@ -18311,7 +18290,6 @@
     <col min="19" max="19" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -18374,7 +18352,7 @@
         <v>10</v>
       </c>
       <c r="M3" s="7"/>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="21" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="7"/>
@@ -18411,7 +18389,7 @@
         <v>228</v>
       </c>
       <c r="M4" s="7"/>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="21" t="s">
         <v>15</v>
       </c>
       <c r="O4" s="7"/>
@@ -18448,7 +18426,7 @@
         <v>11</v>
       </c>
       <c r="M5" s="7"/>
-      <c r="N5" s="26" t="s">
+      <c r="N5" s="21" t="s">
         <v>241</v>
       </c>
       <c r="O5" s="7"/>
@@ -18485,7 +18463,7 @@
         <v>5</v>
       </c>
       <c r="M6" s="7"/>
-      <c r="N6" s="26"/>
+      <c r="N6" s="21"/>
       <c r="O6" s="7"/>
       <c r="P6" s="6" t="s">
         <v>25</v>
@@ -18518,7 +18496,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="26" t="s">
+      <c r="N7" s="21" t="s">
         <v>234</v>
       </c>
       <c r="O7" s="7"/>
@@ -18551,7 +18529,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="26" t="s">
+      <c r="N8" s="21" t="s">
         <v>235</v>
       </c>
       <c r="O8" s="7"/>
@@ -18588,7 +18566,7 @@
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="26" t="s">
+      <c r="N9" s="21" t="s">
         <v>36</v>
       </c>
       <c r="O9" s="7"/>
@@ -18621,7 +18599,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="26" t="s">
+      <c r="N10" s="21" t="s">
         <v>131</v>
       </c>
       <c r="O10" s="7" t="s">
@@ -18654,7 +18632,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="26"/>
+      <c r="N11" s="21"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -18679,7 +18657,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="26"/>
+      <c r="N12" s="21"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -18706,7 +18684,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="26"/>
+      <c r="N13" s="21"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -18731,7 +18709,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="26"/>
+      <c r="N14" s="21"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -18746,7 +18724,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="19" t="s">
         <v>238</v>
       </c>
       <c r="I15" s="7"/>
@@ -18756,7 +18734,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="26" t="s">
+      <c r="N15" s="21" t="s">
         <v>34</v>
       </c>
       <c r="O15" s="7"/>
@@ -18769,7 +18747,7 @@
         <v>51</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="24"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -18783,7 +18761,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="26" t="s">
+      <c r="N16" s="21" t="s">
         <v>53</v>
       </c>
       <c r="O16" s="7"/>
@@ -18796,7 +18774,7 @@
         <v>54</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="24"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -18810,7 +18788,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="26" t="s">
+      <c r="N17" s="21" t="s">
         <v>25</v>
       </c>
       <c r="O17" s="7"/>
@@ -18823,7 +18801,7 @@
         <v>56</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="24"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -18833,7 +18811,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="26" t="s">
+      <c r="N18" s="21" t="s">
         <v>30</v>
       </c>
       <c r="O18" s="7"/>
@@ -18856,7 +18834,7 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="26" t="s">
+      <c r="N19" s="21" t="s">
         <v>37</v>
       </c>
       <c r="O19" s="7"/>
@@ -18949,7 +18927,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A82D92-1693-44C8-9C81-DD60F34B3796}">
-  <dimension ref="B1:T23"/>
+  <dimension ref="B2:T23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
@@ -18979,7 +18957,6 @@
     <col min="20" max="20" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -19045,7 +19022,7 @@
         <v>10</v>
       </c>
       <c r="M3" s="7"/>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="21" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="7"/>
@@ -19056,7 +19033,7 @@
       <c r="R3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="26" t="s">
+      <c r="T3" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -19085,7 +19062,7 @@
         <v>228</v>
       </c>
       <c r="M4" s="7"/>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="21" t="s">
         <v>15</v>
       </c>
       <c r="O4" s="7"/>
@@ -19096,7 +19073,7 @@
       <c r="R4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="26" t="s">
+      <c r="T4" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -19125,7 +19102,7 @@
         <v>11</v>
       </c>
       <c r="M5" s="7"/>
-      <c r="N5" s="26" t="s">
+      <c r="N5" s="21" t="s">
         <v>228</v>
       </c>
       <c r="O5" s="7"/>
@@ -19136,7 +19113,7 @@
       <c r="R5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="26" t="s">
+      <c r="T5" s="21" t="s">
         <v>229</v>
       </c>
     </row>
@@ -19165,7 +19142,7 @@
         <v>5</v>
       </c>
       <c r="M6" s="7"/>
-      <c r="N6" s="26"/>
+      <c r="N6" s="21"/>
       <c r="O6" s="7"/>
       <c r="P6" s="6" t="s">
         <v>25</v>
@@ -19174,7 +19151,7 @@
       <c r="R6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T6" s="26" t="s">
+      <c r="T6" s="21" t="s">
         <v>228</v>
       </c>
     </row>
@@ -19201,7 +19178,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="26" t="s">
+      <c r="N7" s="21" t="s">
         <v>234</v>
       </c>
       <c r="O7" s="7"/>
@@ -19212,7 +19189,7 @@
       <c r="R7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="26" t="s">
+      <c r="T7" s="21" t="s">
         <v>36</v>
       </c>
     </row>
@@ -19239,7 +19216,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="26" t="s">
+      <c r="N8" s="21" t="s">
         <v>235</v>
       </c>
       <c r="O8" s="7"/>
@@ -19250,7 +19227,7 @@
       <c r="R8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T8" s="26" t="s">
+      <c r="T8" s="21" t="s">
         <v>53</v>
       </c>
     </row>
@@ -19279,7 +19256,7 @@
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="26" t="s">
+      <c r="N9" s="21" t="s">
         <v>229</v>
       </c>
       <c r="O9" s="7"/>
@@ -19288,7 +19265,7 @@
       <c r="R9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T9" s="26"/>
+      <c r="T9" s="21"/>
     </row>
     <row r="10" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
@@ -19313,14 +19290,14 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="26"/>
+      <c r="N10" s="21"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="T10" s="26"/>
+      <c r="T10" s="21"/>
     </row>
     <row r="11" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
@@ -19343,14 +19320,14 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="26"/>
+      <c r="N11" s="21"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="T11" s="26"/>
+      <c r="T11" s="21"/>
     </row>
     <row r="12" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
@@ -19369,14 +19346,14 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="26"/>
+      <c r="N12" s="21"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="T12" s="26"/>
+      <c r="T12" s="21"/>
     </row>
     <row r="13" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
@@ -19395,12 +19372,12 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="26"/>
+      <c r="N13" s="21"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="T13" s="26"/>
+      <c r="T13" s="21"/>
     </row>
     <row r="14" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
@@ -19421,12 +19398,12 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="26"/>
+      <c r="N14" s="21"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="T14" s="26"/>
+      <c r="T14" s="21"/>
     </row>
     <row r="15" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
@@ -19439,7 +19416,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="19" t="s">
         <v>225</v>
       </c>
       <c r="I15" s="7"/>
@@ -19449,21 +19426,21 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="26" t="s">
+      <c r="N15" s="21" t="s">
         <v>34</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="T15" s="26"/>
+      <c r="T15" s="21"/>
     </row>
     <row r="16" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="7" t="s">
         <v>230</v>
       </c>
       <c r="E16" s="7"/>
@@ -19479,21 +19456,21 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="26" t="s">
+      <c r="N16" s="21" t="s">
         <v>53</v>
       </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="T16" s="26"/>
+      <c r="T16" s="21"/>
     </row>
     <row r="17" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="7" t="s">
         <v>231</v>
       </c>
       <c r="E17" s="7"/>
@@ -19507,14 +19484,14 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="26" t="s">
+      <c r="N17" s="21" t="s">
         <v>25</v>
       </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="T17" s="26" t="s">
+      <c r="T17" s="21" t="s">
         <v>25</v>
       </c>
     </row>
@@ -19523,7 +19500,7 @@
         <v>56</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="7" t="s">
         <v>232</v>
       </c>
       <c r="E18" s="7"/>
@@ -19535,14 +19512,14 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="26" t="s">
+      <c r="N18" s="21" t="s">
         <v>30</v>
       </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="T18" s="26" t="s">
+      <c r="T18" s="21" t="s">
         <v>30</v>
       </c>
     </row>
@@ -19561,14 +19538,14 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="26" t="s">
+      <c r="N19" s="21" t="s">
         <v>37</v>
       </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="T19" s="26" t="s">
+      <c r="T19" s="21" t="s">
         <v>37</v>
       </c>
     </row>
@@ -19657,10 +19634,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C443B68-02F8-48C5-8EEA-1F321BCF3734}">
-  <dimension ref="B1:S23"/>
+  <dimension ref="B2:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19685,14 +19662,6 @@
     <col min="19" max="19" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-    </row>
     <row r="2" spans="2:19" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -20052,7 +20021,7 @@
         <v>37</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="23" t="s">
         <v>208</v>
       </c>
       <c r="G12" s="7"/>
@@ -21615,12 +21584,12 @@
       <c r="N28" s="7"/>
     </row>
     <row r="29" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="L29" s="19" t="s">
+      <c r="L29" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="30" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="L30" s="19" t="s">
+      <c r="L30" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -22346,7 +22315,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB7B126-0A4E-4DCC-B0ED-B6C4A55668B2}">
-  <dimension ref="B1:R24"/>
+  <dimension ref="B2:R24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
@@ -22374,7 +22343,6 @@
     <col min="18" max="18" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -22437,7 +22405,7 @@
         <v>10</v>
       </c>
       <c r="M3" s="7"/>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="21" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="7"/>
@@ -22474,7 +22442,7 @@
         <v>113</v>
       </c>
       <c r="M4" s="7"/>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="21" t="s">
         <v>15</v>
       </c>
       <c r="O4" s="7"/>
@@ -22511,7 +22479,7 @@
         <v>11</v>
       </c>
       <c r="M5" s="7"/>
-      <c r="N5" s="26" t="s">
+      <c r="N5" s="21" t="s">
         <v>113</v>
       </c>
       <c r="O5" s="7"/>
@@ -22548,7 +22516,7 @@
         <v>5</v>
       </c>
       <c r="M6" s="7"/>
-      <c r="N6" s="26"/>
+      <c r="N6" s="21"/>
       <c r="O6" s="7"/>
       <c r="P6" s="6" t="s">
         <v>25</v>
@@ -22581,7 +22549,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="26" t="s">
+      <c r="N7" s="21" t="s">
         <v>114</v>
       </c>
       <c r="O7" s="7"/>
@@ -22614,7 +22582,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="26" t="s">
+      <c r="N8" s="21" t="s">
         <v>218</v>
       </c>
       <c r="O8" s="7"/>
@@ -22651,7 +22619,7 @@
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="26" t="s">
+      <c r="N9" s="21" t="s">
         <v>108</v>
       </c>
       <c r="O9" s="7"/>
@@ -22684,7 +22652,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="26" t="s">
+      <c r="N10" s="21" t="s">
         <v>219</v>
       </c>
       <c r="O10" s="7"/>
@@ -22717,7 +22685,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="26" t="s">
+      <c r="N11" s="21" t="s">
         <v>49</v>
       </c>
       <c r="O11" s="7"/>
@@ -22746,7 +22714,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="26" t="s">
+      <c r="N12" s="21" t="s">
         <v>36</v>
       </c>
       <c r="O12" s="7"/>
@@ -22773,7 +22741,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="26" t="s">
+      <c r="N13" s="21" t="s">
         <v>43</v>
       </c>
       <c r="O13" s="7"/>
@@ -22796,7 +22764,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="26"/>
+      <c r="N14" s="21"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -22811,7 +22779,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="19" t="s">
         <v>156</v>
       </c>
       <c r="I15" s="7"/>
@@ -22821,7 +22789,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="26" t="s">
+      <c r="N15" s="21" t="s">
         <v>34</v>
       </c>
       <c r="O15" s="7"/>
@@ -22845,7 +22813,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="26" t="s">
+      <c r="N16" s="21" t="s">
         <v>53</v>
       </c>
       <c r="O16" s="7"/>
@@ -22869,7 +22837,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="26" t="s">
+      <c r="N17" s="21" t="s">
         <v>25</v>
       </c>
       <c r="O17" s="7"/>
@@ -22893,7 +22861,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="26" t="s">
+      <c r="N18" s="21" t="s">
         <v>30</v>
       </c>
       <c r="O18" s="7"/>
@@ -22921,7 +22889,7 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="26" t="s">
+      <c r="N19" s="21" t="s">
         <v>37</v>
       </c>
       <c r="O19" s="7"/>
@@ -24529,7 +24497,7 @@
       </c>
     </row>
     <row r="29" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J29" s="22" t="s">
+      <c r="J29" s="20" t="s">
         <v>59</v>
       </c>
     </row>
